--- a/data/pca/factorExposure/factorExposure_2009-06-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01673779861865037</v>
+        <v>0.01643646690909878</v>
       </c>
       <c r="C2">
-        <v>0.001412810799772049</v>
+        <v>0.001043801148906145</v>
       </c>
       <c r="D2">
-        <v>0.008792548238495996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009028813814235396</v>
+      </c>
+      <c r="E2">
+        <v>0.001313406802739413</v>
+      </c>
+      <c r="F2">
+        <v>0.01217178365770853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09076345064238388</v>
+        <v>0.09170014979508315</v>
       </c>
       <c r="C4">
-        <v>0.01961342294040909</v>
+        <v>0.0146972111374555</v>
       </c>
       <c r="D4">
-        <v>0.07760234095072953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0820278748964344</v>
+      </c>
+      <c r="E4">
+        <v>0.02631659467019262</v>
+      </c>
+      <c r="F4">
+        <v>-0.03144405432598785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1.827564878396532e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.534142367416659e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-3.309562600898558e-05</v>
+      </c>
+      <c r="E5">
+        <v>2.418119643868258e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0001088392658127751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1529704118083521</v>
+        <v>0.1616112630587893</v>
       </c>
       <c r="C6">
-        <v>0.02930244620357788</v>
+        <v>0.02881353984425482</v>
       </c>
       <c r="D6">
-        <v>-0.03805702741972628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02676309437790681</v>
+      </c>
+      <c r="E6">
+        <v>0.009892366510596749</v>
+      </c>
+      <c r="F6">
+        <v>-0.0407053401866856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05960866689973288</v>
+        <v>0.06179656034760751</v>
       </c>
       <c r="C7">
-        <v>0.001707762800532097</v>
+        <v>-0.001593088462145908</v>
       </c>
       <c r="D7">
-        <v>0.04844770867739543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05307088702662712</v>
+      </c>
+      <c r="E7">
+        <v>0.01285254717140028</v>
+      </c>
+      <c r="F7">
+        <v>-0.04938166610027194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06175047504666322</v>
+        <v>0.0572976815346908</v>
       </c>
       <c r="C8">
-        <v>-0.01047211289075758</v>
+        <v>-0.0123869349100497</v>
       </c>
       <c r="D8">
-        <v>0.0264962330439551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03111435238374246</v>
+      </c>
+      <c r="E8">
+        <v>0.01760653664652841</v>
+      </c>
+      <c r="F8">
+        <v>0.02667705938736387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07029817922315064</v>
+        <v>0.07128026856484831</v>
       </c>
       <c r="C9">
-        <v>0.0159183400736515</v>
+        <v>0.01047717492482367</v>
       </c>
       <c r="D9">
-        <v>0.07780521117942277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08497615344712237</v>
+      </c>
+      <c r="E9">
+        <v>0.02361701099548958</v>
+      </c>
+      <c r="F9">
+        <v>-0.04815674218535038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08483161884438072</v>
+        <v>0.08707845939073934</v>
       </c>
       <c r="C10">
-        <v>0.01461596942920179</v>
+        <v>0.021457956336295</v>
       </c>
       <c r="D10">
-        <v>-0.1661845015693692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1599885124236811</v>
+      </c>
+      <c r="E10">
+        <v>-0.03336807880191129</v>
+      </c>
+      <c r="F10">
+        <v>0.05815038821916934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.091114213361968</v>
+        <v>0.08758382408546844</v>
       </c>
       <c r="C11">
-        <v>0.01707407397142477</v>
+        <v>0.01151820625973205</v>
       </c>
       <c r="D11">
-        <v>0.1104624637634062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117573807912231</v>
+      </c>
+      <c r="E11">
+        <v>0.04776795901855233</v>
+      </c>
+      <c r="F11">
+        <v>-0.02473579913804923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09606855105193118</v>
+        <v>0.09027598997218059</v>
       </c>
       <c r="C12">
-        <v>0.01519750155735242</v>
+        <v>0.00878244939987464</v>
       </c>
       <c r="D12">
-        <v>0.116667649034031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321261392330703</v>
+      </c>
+      <c r="E12">
+        <v>0.04739729160132772</v>
+      </c>
+      <c r="F12">
+        <v>-0.03174150074335327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04469520556492448</v>
+        <v>0.04391535783143253</v>
       </c>
       <c r="C13">
-        <v>0.006615408794488793</v>
+        <v>0.002745283365310667</v>
       </c>
       <c r="D13">
-        <v>0.0434957981488868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05354153257567434</v>
+      </c>
+      <c r="E13">
+        <v>-0.0003074269371836692</v>
+      </c>
+      <c r="F13">
+        <v>-0.004896608277680226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01941189322799148</v>
+        <v>0.0235232687837949</v>
       </c>
       <c r="C14">
-        <v>0.01518332469040298</v>
+        <v>0.01374335489012808</v>
       </c>
       <c r="D14">
-        <v>0.02953348342045431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03245326886372597</v>
+      </c>
+      <c r="E14">
+        <v>0.01823083853661423</v>
+      </c>
+      <c r="F14">
+        <v>-0.01154675478945633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03379977978781815</v>
+        <v>0.03360105028657816</v>
       </c>
       <c r="C15">
-        <v>0.007537346080941099</v>
+        <v>0.005324752000849747</v>
       </c>
       <c r="D15">
-        <v>0.04370702159574383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04687118279205901</v>
+      </c>
+      <c r="E15">
+        <v>0.008017345527492729</v>
+      </c>
+      <c r="F15">
+        <v>-0.02912617326990433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07464263597307877</v>
+        <v>0.0724348545212382</v>
       </c>
       <c r="C16">
-        <v>0.00753863957023933</v>
+        <v>0.001635396832258197</v>
       </c>
       <c r="D16">
-        <v>0.1149235178072376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1281495012421216</v>
+      </c>
+      <c r="E16">
+        <v>0.06169329200925754</v>
+      </c>
+      <c r="F16">
+        <v>-0.02784065115523558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0006048289321385161</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0004232250896312082</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002241557102498438</v>
+      </c>
+      <c r="E17">
+        <v>0.001571732973114931</v>
+      </c>
+      <c r="F17">
+        <v>0.002733242085148943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02283692881915356</v>
+        <v>0.04052007085982447</v>
       </c>
       <c r="C18">
-        <v>-0.002482467518612108</v>
+        <v>-0.002573187077067186</v>
       </c>
       <c r="D18">
-        <v>0.02504203584240907</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01547405863465104</v>
+      </c>
+      <c r="E18">
+        <v>-0.006307350123422898</v>
+      </c>
+      <c r="F18">
+        <v>0.009985284025814859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06341865318933958</v>
+        <v>0.06216620893778292</v>
       </c>
       <c r="C20">
-        <v>0.005366114402882371</v>
+        <v>0.001056551961933618</v>
       </c>
       <c r="D20">
-        <v>0.06995304267633726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07891201273789036</v>
+      </c>
+      <c r="E20">
+        <v>0.05762590562506762</v>
+      </c>
+      <c r="F20">
+        <v>-0.02943696196304698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03877935132446292</v>
+        <v>0.0405986384907529</v>
       </c>
       <c r="C21">
-        <v>0.009397678063717267</v>
+        <v>0.006343371903234525</v>
       </c>
       <c r="D21">
-        <v>0.03397565216714601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0362033785802687</v>
+      </c>
+      <c r="E21">
+        <v>-0.002836335742707539</v>
+      </c>
+      <c r="F21">
+        <v>0.0246915275636789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04109596310560598</v>
+        <v>0.04440942197239747</v>
       </c>
       <c r="C22">
-        <v>0.00200026795441126</v>
+        <v>0.001079702611651158</v>
       </c>
       <c r="D22">
-        <v>-0.001486465336615051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007203526539501507</v>
+      </c>
+      <c r="E22">
+        <v>0.03751598103187201</v>
+      </c>
+      <c r="F22">
+        <v>0.04683735522949714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04105868862735209</v>
+        <v>0.04438514149144251</v>
       </c>
       <c r="C23">
-        <v>0.001989737474123857</v>
+        <v>0.001070536389679634</v>
       </c>
       <c r="D23">
-        <v>-0.001462326073393433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007217683422085205</v>
+      </c>
+      <c r="E23">
+        <v>0.03769864166103049</v>
+      </c>
+      <c r="F23">
+        <v>0.0468098399195408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08199165559173471</v>
+        <v>0.07822610302703353</v>
       </c>
       <c r="C24">
-        <v>0.008128232521396972</v>
+        <v>0.002410688629128983</v>
       </c>
       <c r="D24">
-        <v>0.1151729873199324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1203407150828006</v>
+      </c>
+      <c r="E24">
+        <v>0.04937564057197979</v>
+      </c>
+      <c r="F24">
+        <v>-0.03034286463196946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08673777777522498</v>
+        <v>0.08326825167898987</v>
       </c>
       <c r="C25">
-        <v>0.01036963106589882</v>
+        <v>0.0051369968287682</v>
       </c>
       <c r="D25">
-        <v>0.1015471928678124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096018248091524</v>
+      </c>
+      <c r="E25">
+        <v>0.03273008731723971</v>
+      </c>
+      <c r="F25">
+        <v>-0.02796395684407444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05780990223419551</v>
+        <v>0.05995940557616861</v>
       </c>
       <c r="C26">
-        <v>0.01798682543407995</v>
+        <v>0.01458024886536153</v>
       </c>
       <c r="D26">
-        <v>0.03109591219592411</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0433436299875959</v>
+      </c>
+      <c r="E26">
+        <v>0.0290281486570866</v>
+      </c>
+      <c r="F26">
+        <v>0.007814306062133644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1336745123555593</v>
+        <v>0.1423495797695605</v>
       </c>
       <c r="C28">
-        <v>0.01342890791635114</v>
+        <v>0.02320626107766159</v>
       </c>
       <c r="D28">
-        <v>-0.2663161887003211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2605280850213189</v>
+      </c>
+      <c r="E28">
+        <v>-0.06858844617530548</v>
+      </c>
+      <c r="F28">
+        <v>-0.004013117923195097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02573425248134739</v>
+        <v>0.02861265495207502</v>
       </c>
       <c r="C29">
-        <v>0.009811835436510274</v>
+        <v>0.008930947786171867</v>
       </c>
       <c r="D29">
-        <v>0.02823164293167853</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03011667583001708</v>
+      </c>
+      <c r="E29">
+        <v>0.01290686148561815</v>
+      </c>
+      <c r="F29">
+        <v>0.0136290697838648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06171592883947904</v>
+        <v>0.05842009872411956</v>
       </c>
       <c r="C30">
-        <v>0.008586842412303409</v>
+        <v>0.002883496322384775</v>
       </c>
       <c r="D30">
-        <v>0.07654432035642414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08762958229856699</v>
+      </c>
+      <c r="E30">
+        <v>0.01437669098520533</v>
+      </c>
+      <c r="F30">
+        <v>-0.07882411010257624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0509799510487459</v>
+        <v>0.05151886682758209</v>
       </c>
       <c r="C31">
-        <v>0.01744979174302357</v>
+        <v>0.01622264230840633</v>
       </c>
       <c r="D31">
-        <v>0.02172332458126321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0245541141577413</v>
+      </c>
+      <c r="E31">
+        <v>0.02858605438912703</v>
+      </c>
+      <c r="F31">
+        <v>0.0005255543326728909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04880015464112917</v>
+        <v>0.05253245832094181</v>
       </c>
       <c r="C32">
-        <v>0.002476143940942933</v>
+        <v>-0.001355083622378876</v>
       </c>
       <c r="D32">
-        <v>0.02649289962197518</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03398343497789349</v>
+      </c>
+      <c r="E32">
+        <v>0.0334497426605813</v>
+      </c>
+      <c r="F32">
+        <v>-0.003169739145562984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09064068969408094</v>
+        <v>0.08946556796831281</v>
       </c>
       <c r="C33">
-        <v>0.01322669398971034</v>
+        <v>0.007253692371514611</v>
       </c>
       <c r="D33">
-        <v>0.08802563916166324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.103282215369609</v>
+      </c>
+      <c r="E33">
+        <v>0.04688451932642475</v>
+      </c>
+      <c r="F33">
+        <v>-0.04314560274404648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06905841203950658</v>
+        <v>0.06723342547696284</v>
       </c>
       <c r="C34">
-        <v>0.01560047676208135</v>
+        <v>0.01061748882904016</v>
       </c>
       <c r="D34">
-        <v>0.09715537611315353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1094738312314266</v>
+      </c>
+      <c r="E34">
+        <v>0.03585919744771925</v>
+      </c>
+      <c r="F34">
+        <v>-0.03480151019880859</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02525422394815608</v>
+        <v>0.02652595524460375</v>
       </c>
       <c r="C35">
-        <v>0.003689966192953992</v>
+        <v>0.003134787976266425</v>
       </c>
       <c r="D35">
-        <v>0.008195252275837719</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01210264946325823</v>
+      </c>
+      <c r="E35">
+        <v>0.01258092340470002</v>
+      </c>
+      <c r="F35">
+        <v>-0.0005773965540771988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02491085357959719</v>
+        <v>0.02808180349296832</v>
       </c>
       <c r="C36">
-        <v>0.008050505169763814</v>
+        <v>0.006949805544621833</v>
       </c>
       <c r="D36">
-        <v>0.03830083132946485</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03883353265496822</v>
+      </c>
+      <c r="E36">
+        <v>0.01702975958714678</v>
+      </c>
+      <c r="F36">
+        <v>-0.01380686571763134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001324421754886982</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008175155258615113</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002934316612340019</v>
+      </c>
+      <c r="E37">
+        <v>2.568008343796747e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.001924990326164691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1122220865096271</v>
+        <v>0.1012219356960458</v>
       </c>
       <c r="C39">
-        <v>0.02324012763952299</v>
+        <v>0.01647754415107765</v>
       </c>
       <c r="D39">
-        <v>0.1467167269485385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1506922896323527</v>
+      </c>
+      <c r="E39">
+        <v>0.05939649793292459</v>
+      </c>
+      <c r="F39">
+        <v>-0.02195664639091819</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03825593274943593</v>
+        <v>0.04341641389867439</v>
       </c>
       <c r="C40">
-        <v>0.00928607446553502</v>
+        <v>0.007727521309158572</v>
       </c>
       <c r="D40">
-        <v>0.02344396289521647</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03271852678477408</v>
+      </c>
+      <c r="E40">
+        <v>0.001789594022912166</v>
+      </c>
+      <c r="F40">
+        <v>0.01559375261766997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02488662103287063</v>
+        <v>0.02704055062454273</v>
       </c>
       <c r="C41">
-        <v>0.007321786647291197</v>
+        <v>0.006793159717500962</v>
       </c>
       <c r="D41">
-        <v>0.009197480195902394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01086461485244803</v>
+      </c>
+      <c r="E41">
+        <v>0.0116520977471263</v>
+      </c>
+      <c r="F41">
+        <v>0.007147616073973489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04188945495134291</v>
+        <v>0.04001900192952749</v>
       </c>
       <c r="C43">
-        <v>0.008302834912125924</v>
+        <v>0.007654472154049923</v>
       </c>
       <c r="D43">
-        <v>0.01726882161317898</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01939624409436485</v>
+      </c>
+      <c r="E43">
+        <v>0.02534536200351814</v>
+      </c>
+      <c r="F43">
+        <v>0.01592106899126694</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06979089441536419</v>
+        <v>0.07846261006358811</v>
       </c>
       <c r="C44">
-        <v>0.0244993712737162</v>
+        <v>0.01982744667536664</v>
       </c>
       <c r="D44">
-        <v>0.09737488274422904</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09683697370725212</v>
+      </c>
+      <c r="E44">
+        <v>0.06266033925536199</v>
+      </c>
+      <c r="F44">
+        <v>-0.1684394251772675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02133792093564451</v>
+        <v>0.02456816417472198</v>
       </c>
       <c r="C46">
-        <v>0.004456053314858942</v>
+        <v>0.0036441469616092</v>
       </c>
       <c r="D46">
-        <v>0.01006953817232622</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01294455063516748</v>
+      </c>
+      <c r="E46">
+        <v>0.02694181592898216</v>
+      </c>
+      <c r="F46">
+        <v>0.005598837592961261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05243629748468591</v>
+        <v>0.05189406444029933</v>
       </c>
       <c r="C47">
-        <v>0.005117197397950016</v>
+        <v>0.004432271605954424</v>
       </c>
       <c r="D47">
-        <v>0.006289954881537825</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01065484466731913</v>
+      </c>
+      <c r="E47">
+        <v>0.02242063798315595</v>
+      </c>
+      <c r="F47">
+        <v>0.03192584223996175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04843286824073615</v>
+        <v>0.05105146410112875</v>
       </c>
       <c r="C48">
-        <v>0.005112526342661293</v>
+        <v>0.002371811905134759</v>
       </c>
       <c r="D48">
-        <v>0.04646271679665835</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05006608315915539</v>
+      </c>
+      <c r="E48">
+        <v>-0.004527364655488483</v>
+      </c>
+      <c r="F48">
+        <v>-0.01246844346992643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1993985690165245</v>
+        <v>0.2005764892311929</v>
       </c>
       <c r="C49">
-        <v>0.0221058720878281</v>
+        <v>0.02083910308077212</v>
       </c>
       <c r="D49">
-        <v>-0.0141533618518078</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00474112097954703</v>
+      </c>
+      <c r="E49">
+        <v>0.03368108024878922</v>
+      </c>
+      <c r="F49">
+        <v>-0.04896316404958984</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04953991044896477</v>
+        <v>0.05162554125401591</v>
       </c>
       <c r="C50">
-        <v>0.0131781838026874</v>
+        <v>0.01183029771587992</v>
       </c>
       <c r="D50">
-        <v>0.02003566161226028</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02315535641290048</v>
+      </c>
+      <c r="E50">
+        <v>0.02974946871413563</v>
+      </c>
+      <c r="F50">
+        <v>-0.009563345183518108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1556052418782181</v>
+        <v>0.1489474155741924</v>
       </c>
       <c r="C52">
-        <v>0.02093397038652104</v>
+        <v>0.01924539623617815</v>
       </c>
       <c r="D52">
-        <v>0.0425073949535261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04217110665840868</v>
+      </c>
+      <c r="E52">
+        <v>0.02277562742267265</v>
+      </c>
+      <c r="F52">
+        <v>-0.041890897566646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1746208854740447</v>
+        <v>0.1691632802970007</v>
       </c>
       <c r="C53">
-        <v>0.02166320856187032</v>
+        <v>0.02215663360365639</v>
       </c>
       <c r="D53">
-        <v>0.006297353023827654</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005571630006575325</v>
+      </c>
+      <c r="E53">
+        <v>0.0303155575019905</v>
+      </c>
+      <c r="F53">
+        <v>-0.07490218355342759</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01769450209106736</v>
+        <v>0.01950990437775556</v>
       </c>
       <c r="C54">
-        <v>0.01235876036362415</v>
+        <v>0.01088263059665652</v>
       </c>
       <c r="D54">
-        <v>0.03096236626614951</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03215284188421125</v>
+      </c>
+      <c r="E54">
+        <v>0.02054130659886422</v>
+      </c>
+      <c r="F54">
+        <v>0.002254271884429322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1172524005299713</v>
+        <v>0.1158389784692519</v>
       </c>
       <c r="C55">
-        <v>0.0190555288709051</v>
+        <v>0.01920741589147068</v>
       </c>
       <c r="D55">
-        <v>0.004580420686993107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008065329241052964</v>
+      </c>
+      <c r="E55">
+        <v>0.02566376465595547</v>
+      </c>
+      <c r="F55">
+        <v>-0.04655414348641116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1803738484873428</v>
+        <v>0.1756028249747256</v>
       </c>
       <c r="C56">
-        <v>0.0194081115536326</v>
+        <v>0.02021455389761696</v>
       </c>
       <c r="D56">
-        <v>-0.00623084306374089</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003165967546857881</v>
+      </c>
+      <c r="E56">
+        <v>0.03246847276719398</v>
+      </c>
+      <c r="F56">
+        <v>-0.05492077814917689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04863770706561851</v>
+        <v>0.04646451688983648</v>
       </c>
       <c r="C58">
-        <v>0.005496098062498751</v>
+        <v>0.0003969606559298001</v>
       </c>
       <c r="D58">
-        <v>0.06383266429400386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07637863150664892</v>
+      </c>
+      <c r="E58">
+        <v>0.0370317493208159</v>
+      </c>
+      <c r="F58">
+        <v>0.03778668035771054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1605624069841683</v>
+        <v>0.167036477866508</v>
       </c>
       <c r="C59">
-        <v>0.01504680149374588</v>
+        <v>0.02352531045058352</v>
       </c>
       <c r="D59">
-        <v>-0.2253324259238298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2181165604790043</v>
+      </c>
+      <c r="E59">
+        <v>-0.05010748193115903</v>
+      </c>
+      <c r="F59">
+        <v>0.03876397561682595</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2393700073578407</v>
+        <v>0.2309090797350925</v>
       </c>
       <c r="C60">
-        <v>0.00357419827689363</v>
+        <v>0.0009269909239680113</v>
       </c>
       <c r="D60">
-        <v>0.03564293303089736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0385027704534367</v>
+      </c>
+      <c r="E60">
+        <v>0.006708143170871216</v>
+      </c>
+      <c r="F60">
+        <v>-0.00674781287969729</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08385645351437263</v>
+        <v>0.0769067189901696</v>
       </c>
       <c r="C61">
-        <v>0.01738734205235596</v>
+        <v>0.01163549546995032</v>
       </c>
       <c r="D61">
-        <v>0.1082103696372721</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155117806290777</v>
+      </c>
+      <c r="E61">
+        <v>0.03770738306166631</v>
+      </c>
+      <c r="F61">
+        <v>-0.008586290256789008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1724441651078676</v>
+        <v>0.169077782392497</v>
       </c>
       <c r="C62">
-        <v>0.02346429910854476</v>
+        <v>0.02302900847304674</v>
       </c>
       <c r="D62">
-        <v>-0.000230987592418135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006091713273008324</v>
+      </c>
+      <c r="E62">
+        <v>0.03454045634425305</v>
+      </c>
+      <c r="F62">
+        <v>-0.04111564885291572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04116830732599604</v>
+        <v>0.04551371405465614</v>
       </c>
       <c r="C63">
-        <v>0.005510943613313342</v>
+        <v>0.001824502875466919</v>
       </c>
       <c r="D63">
-        <v>0.04814331336052238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06016506557444416</v>
+      </c>
+      <c r="E63">
+        <v>0.02399111388286252</v>
+      </c>
+      <c r="F63">
+        <v>-0.000393968928304305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1138149304249789</v>
+        <v>0.1114395371832743</v>
       </c>
       <c r="C64">
-        <v>0.01619315396883064</v>
+        <v>0.01309551601614713</v>
       </c>
       <c r="D64">
-        <v>0.03207835232338354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04211150866817355</v>
+      </c>
+      <c r="E64">
+        <v>0.02396816107368076</v>
+      </c>
+      <c r="F64">
+        <v>-0.02645380787614568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1448153702784394</v>
+        <v>0.1519531715421878</v>
       </c>
       <c r="C65">
-        <v>0.03545324693707214</v>
+        <v>0.03596089757954071</v>
       </c>
       <c r="D65">
-        <v>-0.05894582667126121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04645379681459384</v>
+      </c>
+      <c r="E65">
+        <v>0.007248698802434309</v>
+      </c>
+      <c r="F65">
+        <v>-0.03754965027602596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1357153221363195</v>
+        <v>0.1219420657963824</v>
       </c>
       <c r="C66">
-        <v>0.02186373833036888</v>
+        <v>0.01505676947682077</v>
       </c>
       <c r="D66">
-        <v>0.1286978394257978</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1396595673489228</v>
+      </c>
+      <c r="E66">
+        <v>0.06513367230496764</v>
+      </c>
+      <c r="F66">
+        <v>-0.02695028565993274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06285379617898913</v>
+        <v>0.05580435097604318</v>
       </c>
       <c r="C67">
-        <v>0.005984964051484513</v>
+        <v>0.00360779748987851</v>
       </c>
       <c r="D67">
-        <v>0.05280861590944422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05760809353147792</v>
+      </c>
+      <c r="E67">
+        <v>0.0188870274076037</v>
+      </c>
+      <c r="F67">
+        <v>0.03391957349852617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1063275390279103</v>
+        <v>0.1166458240688221</v>
       </c>
       <c r="C68">
-        <v>0.02341873824953779</v>
+        <v>0.03388034703138487</v>
       </c>
       <c r="D68">
-        <v>-0.2636673085524364</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609949805804597</v>
+      </c>
+      <c r="E68">
+        <v>-0.08936754469833334</v>
+      </c>
+      <c r="F68">
+        <v>-0.0003565145506014717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03956167724053924</v>
+        <v>0.03829901535124261</v>
       </c>
       <c r="C69">
-        <v>0.00237090618961837</v>
+        <v>0.001417419389339176</v>
       </c>
       <c r="D69">
-        <v>0.005994057922768781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008607546976922387</v>
+      </c>
+      <c r="E69">
+        <v>0.02413383431642242</v>
+      </c>
+      <c r="F69">
+        <v>0.0002245142436044431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06664284226050227</v>
+        <v>0.06726666719589283</v>
       </c>
       <c r="C70">
-        <v>-0.02395548903293311</v>
+        <v>-0.02654691028586593</v>
       </c>
       <c r="D70">
-        <v>0.01701643619601042</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02593383809104706</v>
+      </c>
+      <c r="E70">
+        <v>-0.02993742613222551</v>
+      </c>
+      <c r="F70">
+        <v>0.1818498115862498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.125274139753798</v>
+        <v>0.1367380380303686</v>
       </c>
       <c r="C71">
-        <v>0.02796038748484391</v>
+        <v>0.03854914489279876</v>
       </c>
       <c r="D71">
-        <v>-0.2809356983394697</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2709202444783464</v>
+      </c>
+      <c r="E71">
+        <v>-0.09856729723658357</v>
+      </c>
+      <c r="F71">
+        <v>-0.006098824709723811</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1376441312537253</v>
+        <v>0.1441176980660482</v>
       </c>
       <c r="C72">
-        <v>0.02824928673508896</v>
+        <v>0.02880288935785204</v>
       </c>
       <c r="D72">
-        <v>0.001473626292650846</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004434231433566097</v>
+      </c>
+      <c r="E72">
+        <v>0.03857573490436369</v>
+      </c>
+      <c r="F72">
+        <v>-0.02731112306641187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2042977846898314</v>
+        <v>0.2042397498971123</v>
       </c>
       <c r="C73">
-        <v>0.01737927576801363</v>
+        <v>0.0139756444638191</v>
       </c>
       <c r="D73">
-        <v>0.006661604015760742</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01808812322851474</v>
+      </c>
+      <c r="E73">
+        <v>0.06711883438495363</v>
+      </c>
+      <c r="F73">
+        <v>-0.0443529067590659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09263409077881836</v>
+        <v>0.09390795329041438</v>
       </c>
       <c r="C74">
-        <v>0.01468285092712191</v>
+        <v>0.01422695135946133</v>
       </c>
       <c r="D74">
-        <v>0.01481313478909384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01693984432326195</v>
+      </c>
+      <c r="E74">
+        <v>0.04398996334648306</v>
+      </c>
+      <c r="F74">
+        <v>-0.05264713043887352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338949076334176</v>
+        <v>0.1263576025677183</v>
       </c>
       <c r="C75">
-        <v>0.03145872415957868</v>
+        <v>0.03003771767405951</v>
       </c>
       <c r="D75">
-        <v>0.02277560048163028</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02876155143409376</v>
+      </c>
+      <c r="E75">
+        <v>0.05683895409687097</v>
+      </c>
+      <c r="F75">
+        <v>-0.02184515069072017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08298414661143258</v>
+        <v>0.09126781759014065</v>
       </c>
       <c r="C77">
-        <v>0.01498101667740807</v>
+        <v>0.009066181398627849</v>
       </c>
       <c r="D77">
-        <v>0.1052634904259992</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1140984834031332</v>
+      </c>
+      <c r="E77">
+        <v>0.04610587810620116</v>
+      </c>
+      <c r="F77">
+        <v>-0.03386538064049885</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09957172656322642</v>
+        <v>0.1002563149777581</v>
       </c>
       <c r="C78">
-        <v>0.04380852996527235</v>
+        <v>0.03931912021857503</v>
       </c>
       <c r="D78">
-        <v>0.1113846987084875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1102398982639201</v>
+      </c>
+      <c r="E78">
+        <v>0.07489169323030816</v>
+      </c>
+      <c r="F78">
+        <v>-0.05381698278245305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1660547441642193</v>
+        <v>0.1631265491343462</v>
       </c>
       <c r="C79">
-        <v>0.02614396772574512</v>
+        <v>0.0252850840217995</v>
       </c>
       <c r="D79">
-        <v>0.007166031943070464</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01218609910203707</v>
+      </c>
+      <c r="E79">
+        <v>0.04402717193977394</v>
+      </c>
+      <c r="F79">
+        <v>-0.01273124810578663</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0807229102196068</v>
+        <v>0.07934492388818112</v>
       </c>
       <c r="C80">
-        <v>0.001818347847601948</v>
+        <v>-0.0003983127759584022</v>
       </c>
       <c r="D80">
-        <v>0.05494079352321369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05351327061823577</v>
+      </c>
+      <c r="E80">
+        <v>0.0326814060440477</v>
+      </c>
+      <c r="F80">
+        <v>0.02630147375627338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205138262218123</v>
+        <v>0.1166801790276783</v>
       </c>
       <c r="C81">
-        <v>0.03339223368286363</v>
+        <v>0.03342428539024437</v>
       </c>
       <c r="D81">
-        <v>0.0105819306614587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01305908626834401</v>
+      </c>
+      <c r="E81">
+        <v>0.05415072982919999</v>
+      </c>
+      <c r="F81">
+        <v>-0.01795126113536055</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.165982862800039</v>
+        <v>0.165149333994299</v>
       </c>
       <c r="C82">
-        <v>0.02670759585941731</v>
+        <v>0.02769305652203629</v>
       </c>
       <c r="D82">
-        <v>0.006834896391771744</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002963572393096818</v>
+      </c>
+      <c r="E82">
+        <v>0.02853225305883138</v>
+      </c>
+      <c r="F82">
+        <v>-0.08213346400955493</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06378451653184453</v>
+        <v>0.05761340355445402</v>
       </c>
       <c r="C83">
-        <v>0.006060719587878085</v>
+        <v>0.003561789416242857</v>
       </c>
       <c r="D83">
-        <v>0.04277815317089622</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04725918599773459</v>
+      </c>
+      <c r="E83">
+        <v>0.001365246826311629</v>
+      </c>
+      <c r="F83">
+        <v>0.03661746277728787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06237413363426441</v>
+        <v>0.05651604861665203</v>
       </c>
       <c r="C84">
-        <v>0.01387117731239078</v>
+        <v>0.01115417680756971</v>
       </c>
       <c r="D84">
-        <v>0.07027188438164089</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07235950436175249</v>
+      </c>
+      <c r="E84">
+        <v>0.01430574381582563</v>
+      </c>
+      <c r="F84">
+        <v>-0.01556548295559512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1391406418265676</v>
+        <v>0.1346376747673942</v>
       </c>
       <c r="C85">
-        <v>0.03029040832272272</v>
+        <v>0.0300843127663079</v>
       </c>
       <c r="D85">
-        <v>0.007623114779112474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009746836941371743</v>
+      </c>
+      <c r="E85">
+        <v>0.03676562575985903</v>
+      </c>
+      <c r="F85">
+        <v>-0.04756193874364788</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1017875123674686</v>
+        <v>0.09344851197411537</v>
       </c>
       <c r="C86">
-        <v>-0.002430245016046727</v>
+        <v>-0.005261448003708541</v>
       </c>
       <c r="D86">
-        <v>0.01100465317848803</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05152178232470171</v>
+      </c>
+      <c r="E86">
+        <v>0.222916096961364</v>
+      </c>
+      <c r="F86">
+        <v>0.8982875431348508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09654762990179312</v>
+        <v>0.09259486611132299</v>
       </c>
       <c r="C87">
-        <v>0.02830578514795814</v>
+        <v>0.01988874937950056</v>
       </c>
       <c r="D87">
-        <v>0.07367243221806848</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09571352833504801</v>
+      </c>
+      <c r="E87">
+        <v>-0.05197211454188111</v>
+      </c>
+      <c r="F87">
+        <v>-0.0498198044689428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0622577769692968</v>
+        <v>0.06102629254580336</v>
       </c>
       <c r="C88">
-        <v>0.005440414933295741</v>
+        <v>0.00271430162361232</v>
       </c>
       <c r="D88">
-        <v>0.05092999103893765</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04969470666522824</v>
+      </c>
+      <c r="E88">
+        <v>0.02422491951150145</v>
+      </c>
+      <c r="F88">
+        <v>-0.01432607627210914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1169696775199381</v>
+        <v>0.126418589091162</v>
       </c>
       <c r="C89">
-        <v>0.004766241200562621</v>
+        <v>0.01392253196376953</v>
       </c>
       <c r="D89">
-        <v>-0.2463180497249655</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2433767714837136</v>
+      </c>
+      <c r="E89">
+        <v>-0.09313191828139376</v>
+      </c>
+      <c r="F89">
+        <v>0.007739617911902082</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1383813614220083</v>
+        <v>0.1523969122926606</v>
       </c>
       <c r="C90">
-        <v>0.02420365212943851</v>
+        <v>0.03535319807047434</v>
       </c>
       <c r="D90">
-        <v>-0.2647683648496352</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2681716249196625</v>
+      </c>
+      <c r="E90">
+        <v>-0.1142371210715756</v>
+      </c>
+      <c r="F90">
+        <v>0.008846104697626136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1214114524431496</v>
+        <v>0.1203318681506022</v>
       </c>
       <c r="C91">
-        <v>0.02097287730167501</v>
+        <v>0.02165640748006464</v>
       </c>
       <c r="D91">
-        <v>-0.01962024920330171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01692684602406576</v>
+      </c>
+      <c r="E91">
+        <v>0.05370379618120037</v>
+      </c>
+      <c r="F91">
+        <v>0.001667767338172186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1380286874857072</v>
+        <v>0.1456282006408555</v>
       </c>
       <c r="C92">
-        <v>0.01476022068175485</v>
+        <v>0.02635137876655871</v>
       </c>
       <c r="D92">
-        <v>-0.2971789849874121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2947231394769746</v>
+      </c>
+      <c r="E92">
+        <v>-0.1046108347893613</v>
+      </c>
+      <c r="F92">
+        <v>0.01757539857626099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1405797771446352</v>
+        <v>0.1529456681947631</v>
       </c>
       <c r="C93">
-        <v>0.02042748387610898</v>
+        <v>0.03038862266742906</v>
       </c>
       <c r="D93">
-        <v>-0.2663659904830995</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.26411466500398</v>
+      </c>
+      <c r="E93">
+        <v>-0.07671771830150979</v>
+      </c>
+      <c r="F93">
+        <v>-0.002199428640146258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1344522666425978</v>
+        <v>0.1266638820744771</v>
       </c>
       <c r="C94">
-        <v>0.02810292620296221</v>
+        <v>0.02617636299567748</v>
       </c>
       <c r="D94">
-        <v>0.03785917874577496</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04036686065380084</v>
+      </c>
+      <c r="E94">
+        <v>0.05735990042542526</v>
+      </c>
+      <c r="F94">
+        <v>-0.03184551131508465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1253238420282482</v>
+        <v>0.1284182658130278</v>
       </c>
       <c r="C95">
-        <v>0.0100884021205257</v>
+        <v>0.00460557148997635</v>
       </c>
       <c r="D95">
-        <v>0.08629857183828576</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09763948177750788</v>
+      </c>
+      <c r="E95">
+        <v>0.05522203915001864</v>
+      </c>
+      <c r="F95">
+        <v>-0.001863015631247848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.12437624557374</v>
+        <v>0.1197654905708326</v>
       </c>
       <c r="C96">
-        <v>-0.9865782218115899</v>
+        <v>-0.986013773782763</v>
       </c>
       <c r="D96">
-        <v>-0.01544349920781923</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05104845772377372</v>
+      </c>
+      <c r="E96">
+        <v>0.05148372194176236</v>
+      </c>
+      <c r="F96">
+        <v>-0.04226184315905557</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1960427885948475</v>
+        <v>0.1974129984986908</v>
       </c>
       <c r="C97">
-        <v>-0.003763391633664588</v>
+        <v>-0.003947984334735492</v>
       </c>
       <c r="D97">
-        <v>-0.01859606834923921</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02028646553283172</v>
+      </c>
+      <c r="E97">
+        <v>0.02622166736248151</v>
+      </c>
+      <c r="F97">
+        <v>0.1211574692222661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1990845065540919</v>
+        <v>0.2052366693675401</v>
       </c>
       <c r="C98">
-        <v>0.01206082089413165</v>
+        <v>0.008329893156732361</v>
       </c>
       <c r="D98">
-        <v>0.01154141215857575</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01570830494783973</v>
+      </c>
+      <c r="E98">
+        <v>-0.07517561328865482</v>
+      </c>
+      <c r="F98">
+        <v>0.09144656426749012</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0558365067778729</v>
+        <v>0.05538558644397169</v>
       </c>
       <c r="C99">
-        <v>-0.001682498946117088</v>
+        <v>-0.003790471796445293</v>
       </c>
       <c r="D99">
-        <v>0.02993958886762831</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0386441812618253</v>
+      </c>
+      <c r="E99">
+        <v>0.02179273369909523</v>
+      </c>
+      <c r="F99">
+        <v>-0.003317243335284584</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1458963998417853</v>
+        <v>0.1312469201961287</v>
       </c>
       <c r="C100">
-        <v>-0.03716540450499294</v>
+        <v>-0.05016562630687666</v>
       </c>
       <c r="D100">
-        <v>0.3983628144982619</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3548285231080782</v>
+      </c>
+      <c r="E100">
+        <v>-0.8846770979196591</v>
+      </c>
+      <c r="F100">
+        <v>0.148763482736176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02575174407534139</v>
+        <v>0.02867019440511655</v>
       </c>
       <c r="C101">
-        <v>0.009834590146148941</v>
+        <v>0.008961907263306952</v>
       </c>
       <c r="D101">
-        <v>0.02784952874964362</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0297511615019758</v>
+      </c>
+      <c r="E101">
+        <v>0.01238265702782798</v>
+      </c>
+      <c r="F101">
+        <v>0.01498792264084266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
